--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$133</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4705" uniqueCount="745">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>0.4.0-snapshot-1</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-13T09:33:00+00:00</t>
+    <t>2024-05-23T12:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -234,13 +234,13 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: Location du Modèle exposition ROR V3</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t>Mapping: FiveWs Pattern Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: Location du Modèle exposition ROR V3</t>
   </si>
   <si>
     <t/>
@@ -266,10 +266,10 @@
 dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
   </si>
   <si>
+    <t>LieuRealisationOffre</t>
+  </si>
+  <si>
     <t>.Role[classCode=SDLC]</t>
-  </si>
-  <si>
-    <t>LieuRealisationOffre</t>
   </si>
   <si>
     <t>Location.id</t>
@@ -324,10 +324,10 @@
 </t>
   </si>
   <si>
+    <t>metadonnee</t>
+  </si>
+  <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>metadonnee</t>
   </si>
   <si>
     <t>Location.meta.id</t>
@@ -642,22 +642,6 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>Location.extension:ror-location-status</t>
-  </si>
-  <si>
-    <t>ror-location-status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-location-status}
-</t>
-  </si>
-  <si>
-    <t>statut (LieuRealisationOffre) : Indique si le lieu est opérationnel, fermé temporairement ou fermé définitivement</t>
-  </si>
-  <si>
-    <t>Extension créée dans le cadre du ROR pour indiquer si le lieu est opérationnel, fermé temporairement ou fermé définitivement.</t>
-  </si>
-  <si>
     <t>Location.extension:ror-commune-cog</t>
   </si>
   <si>
@@ -1253,19 +1237,19 @@
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
   </si>
   <si>
+    <t>Pas d'équivalent</t>
+  </si>
+  <si>
     <t>.statusCode</t>
   </si>
   <si>
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>Pas d'équivalent</t>
-  </si>
-  <si>
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t>The operational status of the location (typically only for a bed/room)</t>
+    <t>statut (LieuRealisationOffre) : Indique si le lieu est opérationnel, fermé temporairement ou fermé définitivement</t>
   </si>
   <si>
     <t>The operational status covers operation values most relevant to beds (but can also apply to rooms/units/chairs/etc. such as an isolation unit/dialysis chair). This typically covers concepts such as contamination, housekeeping, and other activities like maintenance.</t>
@@ -1274,10 +1258,10 @@
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
   </si>
   <si>
-    <t>The operational status if the location (where typically a bed/room).</t>
-  </si>
-  <si>
-    <t>http://terminology.hl7.org/ValueSet/v2-0116</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J224-StatutLieu-ROR/FHIR/JDV-J224-StatutLieu-ROR</t>
+  </si>
+  <si>
+    <t>Statut</t>
   </si>
   <si>
     <t>Location.name</t>
@@ -1292,10 +1276,10 @@
     <t>If the name of a location changes, consider putting the old name in the alias column so that it can still be located through searches.</t>
   </si>
   <si>
+    <t>nom</t>
+  </si>
+  <si>
     <t>.name</t>
-  </si>
-  <si>
-    <t>nom</t>
   </si>
   <si>
     <t>Location.alias</t>
@@ -1335,12 +1319,12 @@
     <t>Humans need additional information to verify a correct location has been identified.</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
     <t>.playingEntity[classCode=PLC determinerCode=INSTANCE].desc</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>Location.mode</t>
   </si>
   <si>
@@ -1380,10 +1364,10 @@
     <t>https://mos.esante.gouv.fr/NOS/JDV_J198-FonctionLieu-ROR/FHIR/JDV-J198-FonctionLieu-ROR</t>
   </si>
   <si>
+    <t>fonctionLieu</t>
+  </si>
+  <si>
     <t>.code</t>
-  </si>
-  <si>
-    <t>fonctionLieu</t>
   </si>
   <si>
     <t>Location.telecom</t>
@@ -1403,10 +1387,10 @@
 cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
   </si>
   <si>
+    <t>telecommunication</t>
+  </si>
+  <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>telecommunication</t>
   </si>
   <si>
     <t>Location.telecom.id</t>
@@ -1506,10 +1490,10 @@
     <t>ContactPoint.value</t>
   </si>
   <si>
+    <t>adresseTelecom</t>
+  </si>
+  <si>
     <t>./url</t>
-  </si>
-  <si>
-    <t>adresseTelecom</t>
   </si>
   <si>
     <t>Location.telecom.use</t>
@@ -1592,10 +1576,10 @@
     <t>If locations can be visited, we need to keep track of their address.</t>
   </si>
   <si>
+    <t>adresse</t>
+  </si>
+  <si>
     <t>.addr</t>
-  </si>
-  <si>
-    <t>adresse</t>
   </si>
   <si>
     <t>Location.address.id</t>
@@ -1719,10 +1703,10 @@
     <t>The name of the party who will take receipt at the specified address, and will take on responsibility for ensuring delivery to the target recipient.</t>
   </si>
   <si>
+    <t>pointRemise</t>
+  </si>
+  <si>
     <t>ADXP[partType=CAR]</t>
-  </si>
-  <si>
-    <t>pointRemise</t>
   </si>
   <si>
     <t>Location.address.line.extension:additionalLocator</t>
@@ -1741,10 +1725,10 @@
     <t>This can be a unit designator, such as apartment number, suite number, or floor. There may be several unit designators in an address (e.g., "3rd floor, Appt. 342"). This can also be a designator pointing away from the location, rather than specifying a smaller location within some larger one (e.g., Dutch "t.o." means "opposite to" for house boats located across the street facing houses).</t>
   </si>
   <si>
+    <t>complementPointGeographique</t>
+  </si>
+  <si>
     <t>ADXP[partType=ADL]</t>
-  </si>
-  <si>
-    <t>complementPointGeographique</t>
   </si>
   <si>
     <t>Location.address.line.extension:houseNumber</t>
@@ -1763,10 +1747,10 @@
     <t>The number of a building, house or lot alongside the street. Also known as "primary street number". This does not number the street but rather the building.</t>
   </si>
   <si>
+    <t>numeroVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNR]</t>
-  </si>
-  <si>
-    <t>numeroVoie</t>
   </si>
   <si>
     <t>Location.address.line.extension:buildingNumberSuffix</t>
@@ -1785,10 +1769,10 @@
     <t>Any alphabetic character, fraction or other text that may appear after the numeric portion of a building number.</t>
   </si>
   <si>
+    <t>extension</t>
+  </si>
+  <si>
     <t>ADXP[partType=BNS]</t>
-  </si>
-  <si>
-    <t>extension</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameType</t>
@@ -1807,12 +1791,12 @@
     <t>The designation given to the street. (e.g. Street, Avenue, Crescent, etc.).</t>
   </si>
   <si>
+    <t>typeVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STTYP]</t>
   </si>
   <si>
-    <t>typeVoie</t>
-  </si>
-  <si>
     <t>Location.address.line.extension:streetNameType.id</t>
   </si>
   <si>
@@ -1852,39 +1836,20 @@
     <t>Location.address.line.extension.value[x]</t>
   </si>
   <si>
-    <t>base64Binary
-booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
-  </si>
-  <si>
     <t>Value of extension</t>
   </si>
   <si>
-    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R5/extensibility.html) for a list).</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J219-TypeVoie-ROR/FHIR/JDV-J219-TypeVoie-ROR</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ext-1
 </t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>Location.address.line.extension:streetNameType.value[x]:valueString</t>
-  </si>
-  <si>
-    <t>valueString</t>
-  </si>
-  <si>
-    <t>JDV_J103-TypeVoie-RASS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J103-TypeVoie-RASS/FHIR/JDV-J103-TypeVoie-RASS</t>
   </si>
   <si>
     <t>Location.address.line.extension:streetNameBase</t>
@@ -1903,10 +1868,10 @@
     <t>The base name of a roadway or artery recognized by a municipality (excluding street type and direction).</t>
   </si>
   <si>
+    <t>libelleVoie</t>
+  </si>
+  <si>
     <t>ADXP[partType=STB]</t>
-  </si>
-  <si>
-    <t>libelleVoie</t>
   </si>
   <si>
     <t>Location.address.line.extension:postalBox</t>
@@ -1925,10 +1890,10 @@
     <t>A numbered box located in a post station.</t>
   </si>
   <si>
+    <t>mentionDistribution</t>
+  </si>
+  <si>
     <t>ADXP[partType=POB]</t>
-  </si>
-  <si>
-    <t>mentionDistribution</t>
   </si>
   <si>
     <t>Location.address.line.extension:lieuDit</t>
@@ -1978,10 +1943,10 @@
     <t>Address.city</t>
   </si>
   <si>
+    <t>localite</t>
+  </si>
+  <si>
     <t>AD.part[parttype = CTY]</t>
-  </si>
-  <si>
-    <t>localite</t>
   </si>
   <si>
     <t>Location.address.district</t>
@@ -2047,10 +2012,10 @@
     <t>Address.postalCode</t>
   </si>
   <si>
+    <t>codePostal</t>
+  </si>
+  <si>
     <t>AD.part[parttype = ZIP]</t>
-  </si>
-  <si>
-    <t>codePostal</t>
   </si>
   <si>
     <t>Location.address.country</t>
@@ -2129,10 +2094,10 @@
     <t>For mobile applications and automated route-finding knowing the exact location of the Location is required.</t>
   </si>
   <si>
+    <t>coordonneeGeographique</t>
+  </si>
+  <si>
     <t>.playingEntity [classCode=PLC determinerCode=INSTANCE].positionText</t>
-  </si>
-  <si>
-    <t>coordonneeGeographique</t>
   </si>
   <si>
     <t>Location.position.id</t>
@@ -2190,10 +2155,10 @@
     <t>Do not use an IEEE type floating point type, instead use something that works like a true decimal, with inbuilt precision (e.g. Java BigInteger)</t>
   </si>
   <si>
+    <t>longitude</t>
+  </si>
+  <si>
     <t>(RIM Opted not to map the sub-elements of GPS location, is now an OBS)</t>
-  </si>
-  <si>
-    <t>longitude</t>
   </si>
   <si>
     <t>Location.position.latitude</t>
@@ -2675,7 +2640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM135"/>
+  <dimension ref="A1:AM133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2684,7 +2649,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="65.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.4296875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="34.48828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2694,7 +2659,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="138.9140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2719,9 +2684,9 @@
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="51.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="51.49609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2946,10 +2911,10 @@
         <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3054,13 +3019,13 @@
         <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="AL3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -3166,10 +3131,10 @@
         <v>100</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" hidden="true">
@@ -3272,10 +3237,10 @@
         <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>75</v>
@@ -3383,10 +3348,10 @@
         <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>75</v>
@@ -3494,10 +3459,10 @@
         <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>75</v>
@@ -3605,13 +3570,13 @@
         <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="AL8" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM8" t="s" s="2">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" hidden="true">
@@ -3716,10 +3681,10 @@
         <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL9" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL9" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>75</v>
@@ -3827,10 +3792,10 @@
         <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL10" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL10" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>75</v>
@@ -3938,10 +3903,10 @@
         <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>75</v>
@@ -4049,10 +4014,10 @@
         <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>75</v>
@@ -4160,13 +4125,13 @@
         <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -4271,10 +4236,10 @@
         <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>75</v>
@@ -4382,10 +4347,10 @@
         <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>75</v>
@@ -4493,10 +4458,10 @@
         <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>75</v>
@@ -4604,10 +4569,10 @@
         <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>75</v>
@@ -4737,7 +4702,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>85</v>
@@ -4848,10 +4813,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>86</v>
@@ -5181,10 +5146,10 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>86</v>
@@ -5282,41 +5247,43 @@
         <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="C24" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I24" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="J24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>75</v>
       </c>
@@ -5352,19 +5319,19 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -5382,7 +5349,7 @@
         <v>75</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>75</v>
@@ -5397,7 +5364,7 @@
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -5407,28 +5374,26 @@
         <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J25" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>110</v>
+        <v>232</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -5465,11 +5430,9 @@
         <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>75</v>
       </c>
@@ -5477,7 +5440,7 @@
         <v>116</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -5489,26 +5452,28 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="D26" t="s" s="2">
         <v>75</v>
       </c>
@@ -5517,7 +5482,7 @@
         <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>86</v>
@@ -5529,17 +5494,17 @@
         <v>86</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -5576,17 +5541,19 @@
         <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AC26" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -5601,25 +5568,23 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C27" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
         <v>75</v>
       </c>
@@ -5631,27 +5596,25 @@
         <v>85</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -5699,47 +5662,47 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>245</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -5751,15 +5714,17 @@
         <v>75</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>75</v>
@@ -5796,37 +5761,37 @@
         <v>75</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>75</v>
@@ -5834,44 +5799,46 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -5895,49 +5862,49 @@
         <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>75</v>
@@ -5945,10 +5912,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5956,34 +5923,34 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>75</v>
@@ -6008,13 +5975,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -6032,7 +5999,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -6047,10 +6014,10 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>75</v>
@@ -6058,10 +6025,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6069,35 +6036,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -6121,13 +6084,13 @@
         <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>75</v>
@@ -6145,7 +6108,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -6154,16 +6117,16 @@
         <v>85</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>75</v>
@@ -6171,21 +6134,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>75</v>
@@ -6197,15 +6160,17 @@
         <v>75</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>75</v>
@@ -6242,37 +6207,37 @@
         <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>75</v>
@@ -6280,14 +6245,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6303,21 +6268,23 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O33" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>75</v>
       </c>
@@ -6353,19 +6320,19 @@
         <v>75</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
@@ -6377,13 +6344,13 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>75</v>
@@ -6391,10 +6358,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6405,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
@@ -6414,23 +6381,19 @@
         <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -6478,25 +6441,25 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>75</v>
@@ -6504,21 +6467,21 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -6530,15 +6493,17 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>75</v>
@@ -6575,37 +6540,37 @@
         <v>75</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>75</v>
@@ -6613,21 +6578,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>75</v>
@@ -6636,21 +6601,23 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -6686,37 +6653,37 @@
         <v>75</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>75</v>
@@ -6724,10 +6691,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6750,20 +6717,18 @@
         <v>86</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -6811,7 +6776,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6826,10 +6791,10 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>75</v>
@@ -6837,10 +6802,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6848,7 +6813,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>85</v>
@@ -6863,18 +6828,20 @@
         <v>86</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -6883,7 +6850,7 @@
         <v>75</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>75</v>
+        <v>303</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>75</v>
@@ -6922,7 +6889,7 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6937,10 +6904,10 @@
         <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>75</v>
@@ -6948,10 +6915,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6959,7 +6926,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>85</v>
@@ -6974,19 +6941,19 @@
         <v>86</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>75</v>
@@ -6996,7 +6963,7 @@
         <v>75</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>75</v>
@@ -7035,7 +7002,7 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -7050,10 +7017,10 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>75</v>
@@ -7061,10 +7028,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7087,19 +7054,19 @@
         <v>86</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
@@ -7148,7 +7115,7 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -7163,10 +7130,10 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>75</v>
@@ -7174,10 +7141,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7200,19 +7167,19 @@
         <v>86</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>75</v>
@@ -7261,7 +7228,7 @@
         <v>75</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -7276,10 +7243,10 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>75</v>
@@ -7287,10 +7254,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7313,19 +7280,19 @@
         <v>86</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>75</v>
@@ -7338,7 +7305,7 @@
         <v>75</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>75</v>
@@ -7374,7 +7341,7 @@
         <v>75</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -7389,10 +7356,10 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>75</v>
@@ -7400,10 +7367,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7426,20 +7393,18 @@
         <v>86</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>75</v>
       </c>
@@ -7451,7 +7416,7 @@
         <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>75</v>
@@ -7487,7 +7452,7 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7502,10 +7467,10 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>75</v>
@@ -7513,10 +7478,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7539,16 +7504,16 @@
         <v>86</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7562,7 +7527,7 @@
         <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>75</v>
@@ -7598,7 +7563,7 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7610,13 +7575,13 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>75</v>
@@ -7624,10 +7589,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7650,16 +7615,16 @@
         <v>86</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7709,7 +7674,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -7721,13 +7686,13 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>75</v>
@@ -7735,12 +7700,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7752,7 +7719,7 @@
         <v>85</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>75</v>
@@ -7761,18 +7728,18 @@
         <v>86</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>363</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>234</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>235</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>75</v>
       </c>
@@ -7820,40 +7787,38 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>231</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>368</v>
       </c>
-      <c r="AK46" t="s" s="2">
-        <v>369</v>
-      </c>
       <c r="AL46" t="s" s="2">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>75</v>
+        <v>238</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7865,27 +7830,25 @@
         <v>85</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>237</v>
+        <v>103</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>372</v>
+        <v>104</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>240</v>
-      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>75</v>
       </c>
@@ -7933,47 +7896,47 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>236</v>
+        <v>106</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>242</v>
+        <v>75</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>243</v>
+        <v>107</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>75</v>
@@ -7985,15 +7948,17 @@
         <v>75</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -8030,37 +7995,37 @@
         <v>75</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>75</v>
@@ -8068,44 +8033,46 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>111</v>
+        <v>248</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O49" s="2"/>
+        <v>250</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -8129,49 +8096,49 @@
         <v>75</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>75</v>
+        <v>252</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>75</v>
+        <v>253</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>75</v>
@@ -8179,10 +8146,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8190,34 +8157,34 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>75</v>
@@ -8242,13 +8209,13 @@
         <v>75</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>75</v>
@@ -8266,7 +8233,7 @@
         <v>75</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -8281,10 +8248,10 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>75</v>
+        <v>255</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>75</v>
@@ -8292,10 +8259,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8303,35 +8270,31 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>264</v>
+        <v>104</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>267</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>75</v>
       </c>
@@ -8355,13 +8318,13 @@
         <v>75</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>268</v>
+        <v>75</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>75</v>
@@ -8379,7 +8342,7 @@
         <v>75</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>270</v>
+        <v>106</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8388,16 +8351,16 @@
         <v>85</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>75</v>
@@ -8405,21 +8368,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>75</v>
@@ -8431,15 +8394,17 @@
         <v>75</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>75</v>
@@ -8476,37 +8441,37 @@
         <v>75</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>75</v>
@@ -8514,14 +8479,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8537,21 +8502,23 @@
         <v>75</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>111</v>
+        <v>272</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>75</v>
       </c>
@@ -8587,19 +8554,19 @@
         <v>75</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8611,13 +8578,13 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>75</v>
+        <v>277</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>75</v>
@@ -8625,10 +8592,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8639,7 +8606,7 @@
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>75</v>
@@ -8648,23 +8615,19 @@
         <v>75</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>277</v>
+        <v>104</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>75</v>
       </c>
@@ -8712,25 +8675,25 @@
         <v>75</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>281</v>
+        <v>106</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>282</v>
+        <v>75</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>75</v>
@@ -8738,21 +8701,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>75</v>
@@ -8764,15 +8727,17 @@
         <v>75</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>75</v>
@@ -8809,37 +8774,37 @@
         <v>75</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>75</v>
@@ -8847,21 +8812,21 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>75</v>
@@ -8870,21 +8835,23 @@
         <v>75</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>75</v>
       </c>
@@ -8920,37 +8887,37 @@
         <v>75</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>117</v>
+        <v>288</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>75</v>
@@ -8958,10 +8925,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8984,20 +8951,18 @@
         <v>86</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>75</v>
       </c>
@@ -9045,7 +9010,7 @@
         <v>75</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -9060,10 +9025,10 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>75</v>
@@ -9071,10 +9036,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9082,7 +9047,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>85</v>
@@ -9097,18 +9062,20 @@
         <v>86</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>75</v>
       </c>
@@ -9117,7 +9084,7 @@
         <v>75</v>
       </c>
       <c r="S58" t="s" s="2">
-        <v>75</v>
+        <v>381</v>
       </c>
       <c r="T58" t="s" s="2">
         <v>75</v>
@@ -9156,7 +9123,7 @@
         <v>75</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -9171,10 +9138,10 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>301</v>
+        <v>75</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>75</v>
+        <v>305</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>75</v>
@@ -9182,10 +9149,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9193,7 +9160,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>85</v>
@@ -9208,19 +9175,19 @@
         <v>86</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>75</v>
@@ -9230,7 +9197,7 @@
         <v>75</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>386</v>
+        <v>75</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>75</v>
@@ -9269,7 +9236,7 @@
         <v>75</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -9284,10 +9251,10 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>310</v>
+        <v>75</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>75</v>
@@ -9295,10 +9262,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9321,19 +9288,19 @@
         <v>86</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>103</v>
+        <v>315</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>75</v>
@@ -9382,7 +9349,7 @@
         <v>75</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9397,10 +9364,10 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>75</v>
+        <v>321</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>75</v>
@@ -9408,10 +9375,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9434,19 +9401,19 @@
         <v>86</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>320</v>
+        <v>103</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>75</v>
@@ -9495,7 +9462,7 @@
         <v>75</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9510,10 +9477,10 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>326</v>
+        <v>75</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>75</v>
+        <v>329</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>75</v>
@@ -9521,10 +9488,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9547,19 +9514,19 @@
         <v>86</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>75</v>
@@ -9572,7 +9539,7 @@
         <v>75</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>75</v>
+        <v>336</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>75</v>
@@ -9608,7 +9575,7 @@
         <v>75</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9623,10 +9590,10 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>334</v>
+        <v>75</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>75</v>
+        <v>338</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>75</v>
@@ -9634,10 +9601,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9660,20 +9627,18 @@
         <v>86</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>75</v>
       </c>
@@ -9685,7 +9650,7 @@
         <v>75</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>75</v>
@@ -9721,7 +9686,7 @@
         <v>75</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9736,10 +9701,10 @@
         <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>343</v>
+        <v>75</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>75</v>
@@ -9747,10 +9712,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9773,16 +9738,16 @@
         <v>86</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9796,7 +9761,7 @@
         <v>75</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>349</v>
+        <v>75</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>75</v>
@@ -9832,7 +9797,7 @@
         <v>75</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9844,13 +9809,13 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>351</v>
+        <v>75</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>75</v>
+        <v>355</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>75</v>
@@ -9858,10 +9823,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9884,16 +9849,16 @@
         <v>86</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9943,7 +9908,7 @@
         <v>75</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9955,13 +9920,13 @@
         <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>360</v>
+        <v>75</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>75</v>
+        <v>364</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>75</v>
@@ -9969,10 +9934,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>362</v>
+        <v>389</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9989,22 +9954,22 @@
         <v>75</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J66" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>363</v>
+        <v>173</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -10030,13 +9995,13 @@
         <v>75</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>75</v>
+        <v>392</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>75</v>
+        <v>393</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>75</v>
@@ -10054,7 +10019,7 @@
         <v>75</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -10066,24 +10031,24 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>75</v>
+        <v>395</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>75</v>
+        <v>396</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10097,25 +10062,25 @@
         <v>85</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>306</v>
+        <v>400</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10143,29 +10108,27 @@
       <c r="X67" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y67" t="s" s="2">
+      <c r="Y67" s="2"/>
+      <c r="Z67" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -10180,21 +10143,21 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>400</v>
+        <v>152</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10208,7 +10171,7 @@
         <v>85</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>75</v>
@@ -10217,16 +10180,16 @@
         <v>86</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10252,13 +10215,13 @@
         <v>75</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>406</v>
+        <v>75</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>407</v>
+        <v>75</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>75</v>
@@ -10276,7 +10239,7 @@
         <v>75</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10291,10 +10254,10 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>152</v>
+        <v>407</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>75</v>
@@ -10302,10 +10265,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10316,30 +10279,32 @@
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>75</v>
       </c>
@@ -10375,25 +10340,25 @@
         <v>75</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>75</v>
+        <v>414</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>98</v>
@@ -10402,23 +10367,25 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>412</v>
+        <v>75</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>413</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>75</v>
       </c>
@@ -10427,10 +10394,10 @@
         <v>76</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>75</v>
@@ -10442,16 +10409,16 @@
         <v>103</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>75</v>
@@ -10488,19 +10455,19 @@
         <v>75</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>419</v>
+        <v>75</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10515,10 +10482,10 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>75</v>
+        <v>408</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>75</v>
@@ -10526,14 +10493,12 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>75</v>
       </c>
@@ -10551,22 +10516,22 @@
         <v>75</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>417</v>
+        <v>301</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>75</v>
@@ -10615,13 +10580,13 @@
         <v>75</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>98</v>
@@ -10630,21 +10595,21 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>75</v>
+        <v>422</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>421</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10658,7 +10623,7 @@
         <v>85</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>75</v>
@@ -10667,19 +10632,19 @@
         <v>86</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>75</v>
@@ -10704,13 +10669,13 @@
         <v>75</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>75</v>
+        <v>425</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>75</v>
+        <v>428</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>75</v>
@@ -10728,7 +10693,7 @@
         <v>75</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
@@ -10743,21 +10708,21 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>426</v>
+        <v>75</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>75</v>
+        <v>429</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10771,7 +10736,7 @@
         <v>85</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>75</v>
@@ -10780,20 +10745,18 @@
         <v>86</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>75</v>
       </c>
@@ -10819,11 +10782,9 @@
       <c r="X73" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y73" t="s" s="2">
-        <v>430</v>
-      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>75</v>
@@ -10841,13 +10802,13 @@
         <v>75</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>98</v>
@@ -10856,21 +10817,21 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10881,7 +10842,7 @@
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>86</v>
@@ -10890,20 +10851,18 @@
         <v>75</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>263</v>
+        <v>439</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>75</v>
@@ -10928,11 +10887,13 @@
         <v>75</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>440</v>
+        <v>75</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>75</v>
@@ -10950,7 +10911,7 @@
         <v>75</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
@@ -10962,24 +10923,24 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>442</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>442</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10990,10 +10951,10 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>75</v>
@@ -11002,13 +10963,13 @@
         <v>75</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>444</v>
+        <v>103</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>445</v>
+        <v>104</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11059,36 +11020,36 @@
         <v>75</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>443</v>
+        <v>106</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>447</v>
+        <v>75</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>449</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11096,10 +11057,10 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>75</v>
@@ -11111,13 +11072,13 @@
         <v>75</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11156,34 +11117,34 @@
         <v>75</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>75</v>
@@ -11194,24 +11155,26 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>75</v>
@@ -11220,13 +11183,13 @@
         <v>75</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>110</v>
+        <v>449</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>198</v>
+        <v>450</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>199</v>
+        <v>451</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11265,16 +11228,16 @@
         <v>75</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>117</v>
@@ -11306,7 +11269,7 @@
         <v>452</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>453</v>
@@ -11316,7 +11279,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>85</v>
@@ -11417,7 +11380,7 @@
         <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C79" t="s" s="2">
         <v>458</v>
@@ -11427,7 +11390,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>85</v>
@@ -11528,40 +11491,40 @@
         <v>462</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="C80" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I80" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K80" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="L80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>75</v>
@@ -11586,13 +11549,13 @@
         <v>75</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>75</v>
+        <v>465</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>75</v>
+        <v>466</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>75</v>
@@ -11610,25 +11573,25 @@
         <v>75</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>117</v>
+        <v>467</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>98</v>
+        <v>468</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>75</v>
+        <v>469</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>75</v>
@@ -11636,10 +11599,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11647,13 +11610,13 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>75</v>
@@ -11662,18 +11625,20 @@
         <v>86</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O81" s="2"/>
+        <v>473</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>474</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>75</v>
       </c>
@@ -11697,13 +11662,13 @@
         <v>75</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>470</v>
+        <v>75</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>471</v>
+        <v>75</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>75</v>
@@ -11721,7 +11686,7 @@
         <v>75</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
@@ -11730,16 +11695,16 @@
         <v>85</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>473</v>
+        <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>75</v>
+        <v>477</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>75</v>
@@ -11747,10 +11712,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11758,34 +11723,34 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H82" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I82" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>75</v>
@@ -11810,13 +11775,13 @@
         <v>75</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>75</v>
+        <v>483</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>75</v>
+        <v>484</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>75</v>
@@ -11834,7 +11799,7 @@
         <v>75</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11849,21 +11814,21 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>481</v>
+        <v>75</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>482</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11880,26 +11845,24 @@
         <v>75</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J83" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>173</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>491</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>75</v>
       </c>
@@ -11923,13 +11886,13 @@
         <v>75</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>488</v>
+        <v>75</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>489</v>
+        <v>75</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>75</v>
@@ -11947,7 +11910,7 @@
         <v>75</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
@@ -11962,10 +11925,10 @@
         <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>75</v>
@@ -11973,10 +11936,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11999,7 +11962,7 @@
         <v>86</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>493</v>
+        <v>349</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>494</v>
@@ -12008,7 +11971,7 @@
         <v>495</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>496</v>
+        <v>352</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12058,7 +12021,7 @@
         <v>75</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -12070,13 +12033,13 @@
         <v>98</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>75</v>
@@ -12107,21 +12070,23 @@
         <v>75</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>354</v>
+        <v>499</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>75</v>
       </c>
@@ -12169,7 +12134,7 @@
         <v>75</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -12181,13 +12146,13 @@
         <v>98</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>359</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>75</v>
+        <v>505</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>75</v>
@@ -12195,10 +12160,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12221,20 +12186,16 @@
         <v>75</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>504</v>
+        <v>103</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>505</v>
+        <v>104</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>75</v>
       </c>
@@ -12282,7 +12243,7 @@
         <v>75</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>503</v>
+        <v>106</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>76</v>
@@ -12291,38 +12252,38 @@
         <v>85</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>509</v>
+        <v>75</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>510</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>75</v>
@@ -12334,15 +12295,17 @@
         <v>75</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>75</v>
@@ -12379,37 +12342,37 @@
         <v>75</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>75</v>
@@ -12417,44 +12380,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>111</v>
+        <v>509</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>112</v>
+        <v>510</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>75</v>
       </c>
@@ -12466,7 +12431,7 @@
         <v>75</v>
       </c>
       <c r="T88" t="s" s="2">
-        <v>75</v>
+        <v>513</v>
       </c>
       <c r="U88" t="s" s="2">
         <v>75</v>
@@ -12478,49 +12443,49 @@
         <v>75</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>75</v>
+        <v>514</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>75</v>
+        <v>515</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>117</v>
+        <v>516</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>75</v>
@@ -12528,10 +12493,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12548,7 +12513,7 @@
         <v>75</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>86</v>
@@ -12557,17 +12522,15 @@
         <v>173</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>75</v>
       </c>
@@ -12579,7 +12542,7 @@
         <v>75</v>
       </c>
       <c r="T89" t="s" s="2">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="U89" t="s" s="2">
         <v>75</v>
@@ -12594,10 +12557,10 @@
         <v>164</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>75</v>
@@ -12615,7 +12578,7 @@
         <v>75</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>76</v>
@@ -12630,10 +12593,10 @@
         <v>99</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>75</v>
+        <v>486</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>75</v>
@@ -12641,10 +12604,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12667,18 +12630,20 @@
         <v>86</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>75</v>
       </c>
@@ -12690,7 +12655,7 @@
         <v>75</v>
       </c>
       <c r="T90" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="U90" t="s" s="2">
         <v>75</v>
@@ -12702,13 +12667,13 @@
         <v>75</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>527</v>
+        <v>75</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>528</v>
+        <v>75</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>75</v>
@@ -12726,7 +12691,7 @@
         <v>75</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>76</v>
@@ -12741,10 +12706,10 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>491</v>
+        <v>75</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>75</v>
+        <v>532</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>75</v>
@@ -12752,10 +12717,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12766,7 +12731,7 @@
         <v>76</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>75</v>
@@ -12781,17 +12746,15 @@
         <v>103</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>75</v>
       </c>
@@ -12803,7 +12766,7 @@
         <v>75</v>
       </c>
       <c r="T91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="U91" t="s" s="2">
         <v>75</v>
@@ -12839,13 +12802,13 @@
         <v>75</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>98</v>
@@ -12854,10 +12817,10 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>537</v>
+        <v>75</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>75</v>
+        <v>538</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>75</v>
@@ -12865,10 +12828,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12879,7 +12842,7 @@
         <v>76</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>75</v>
@@ -12888,20 +12851,18 @@
         <v>75</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>539</v>
+        <v>104</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>75</v>
@@ -12914,7 +12875,7 @@
         <v>75</v>
       </c>
       <c r="T92" t="s" s="2">
-        <v>541</v>
+        <v>75</v>
       </c>
       <c r="U92" t="s" s="2">
         <v>75</v>
@@ -12950,25 +12911,25 @@
         <v>75</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>542</v>
+        <v>106</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>543</v>
+        <v>75</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>75</v>
@@ -12976,21 +12937,21 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>75</v>
@@ -13002,15 +12963,17 @@
         <v>75</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>75</v>
@@ -13047,37 +13010,37 @@
         <v>75</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC93" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD93" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>75</v>
@@ -13085,24 +13048,26 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>542</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>75</v>
@@ -13111,17 +13076,15 @@
         <v>75</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>110</v>
+        <v>543</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>111</v>
+        <v>544</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>545</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>75</v>
@@ -13158,16 +13121,16 @@
         <v>75</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>117</v>
@@ -13185,10 +13148,10 @@
         <v>118</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>100</v>
+        <v>546</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>75</v>
+        <v>547</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>75</v>
@@ -13196,13 +13159,13 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>75</v>
@@ -13224,13 +13187,13 @@
         <v>75</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
@@ -13296,24 +13259,24 @@
         <v>118</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>75</v>
+        <v>554</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>552</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>75</v>
@@ -13335,13 +13298,13 @@
         <v>75</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13407,24 +13370,24 @@
         <v>118</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>75</v>
+        <v>561</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>559</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>75</v>
@@ -13446,13 +13409,13 @@
         <v>75</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -13518,24 +13481,24 @@
         <v>118</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>75</v>
+        <v>568</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>566</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>75</v>
@@ -13557,13 +13520,13 @@
         <v>75</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13629,25 +13592,23 @@
         <v>118</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>75</v>
+        <v>575</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>573</v>
+        <v>75</v>
       </c>
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C99" t="s" s="2">
-        <v>575</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
         <v>75</v>
       </c>
@@ -13659,7 +13620,7 @@
         <v>85</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>75</v>
@@ -13668,13 +13629,13 @@
         <v>75</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>576</v>
+        <v>87</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>577</v>
+        <v>104</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>578</v>
+        <v>105</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13725,36 +13686,36 @@
         <v>75</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>579</v>
+        <v>75</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>580</v>
+        <v>75</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13765,7 +13726,7 @@
         <v>76</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>75</v>
@@ -13777,13 +13738,13 @@
         <v>75</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>104</v>
+        <v>198</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>105</v>
+        <v>199</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -13822,34 +13783,34 @@
         <v>75</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL100" t="s" s="2">
         <v>75</v>
@@ -13860,21 +13821,21 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>75</v>
@@ -13886,16 +13847,16 @@
         <v>75</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>111</v>
+        <v>582</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>112</v>
+        <v>583</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>113</v>
+        <v>584</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13903,7 +13864,7 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
-        <v>75</v>
+        <v>585</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>75</v>
@@ -13933,37 +13894,37 @@
         <v>75</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>117</v>
+        <v>586</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>75</v>
@@ -13971,10 +13932,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13997,24 +13958,22 @@
         <v>75</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>589</v>
-      </c>
+        <v>590</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q102" s="2"/>
       <c r="R102" t="s" s="2">
-        <v>590</v>
+        <v>75</v>
       </c>
       <c r="S102" t="s" s="2">
         <v>75</v>
@@ -14032,13 +13991,11 @@
         <v>75</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="Y102" s="2"/>
       <c r="Z102" t="s" s="2">
-        <v>75</v>
+        <v>591</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>75</v>
@@ -14056,25 +14013,25 @@
         <v>75</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>85</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>75</v>
+        <v>593</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>75</v>
@@ -14082,12 +14039,14 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>540</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>595</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>75</v>
       </c>
@@ -14099,7 +14058,7 @@
         <v>85</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>75</v>
@@ -14108,13 +14067,13 @@
         <v>75</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14141,45 +14100,49 @@
         <v>75</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="Y103" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Z103" t="s" s="2">
-        <v>597</v>
+        <v>75</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>599</v>
+        <v>75</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>600</v>
+        <v>117</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>100</v>
+        <v>599</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>75</v>
+        <v>600</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>75</v>
@@ -14190,7 +14153,7 @@
         <v>601</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>593</v>
+        <v>540</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>602</v>
@@ -14206,7 +14169,7 @@
         <v>85</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>75</v>
@@ -14215,13 +14178,13 @@
         <v>75</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>103</v>
+        <v>603</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>596</v>
+        <v>605</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -14248,13 +14211,13 @@
         <v>75</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>603</v>
+        <v>75</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>604</v>
+        <v>75</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>75</v>
@@ -14272,25 +14235,25 @@
         <v>75</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>600</v>
+        <v>117</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>100</v>
+        <v>606</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>75</v>
+        <v>607</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>75</v>
@@ -14298,13 +14261,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>75</v>
@@ -14326,13 +14289,13 @@
         <v>75</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
@@ -14398,25 +14361,23 @@
         <v>118</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>611</v>
+        <v>75</v>
       </c>
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C106" t="s" s="2">
         <v>613</v>
       </c>
+      <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
         <v>75</v>
       </c>
@@ -14428,7 +14389,7 @@
         <v>85</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>75</v>
@@ -14437,13 +14398,13 @@
         <v>75</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>614</v>
       </c>
-      <c r="L106" t="s" s="2">
-        <v>615</v>
-      </c>
       <c r="M106" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14467,7 +14428,7 @@
         <v>75</v>
       </c>
       <c r="W106" t="s" s="2">
-        <v>75</v>
+        <v>615</v>
       </c>
       <c r="X106" t="s" s="2">
         <v>75</v>
@@ -14494,42 +14455,40 @@
         <v>75</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>117</v>
+        <v>616</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>617</v>
+        <v>75</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>618</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="C107" t="s" s="2">
-        <v>620</v>
-      </c>
+        <v>617</v>
+      </c>
+      <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>75</v>
+        <v>618</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" t="s" s="2">
@@ -14539,24 +14498,26 @@
         <v>85</v>
       </c>
       <c r="H107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J107" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="I107" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>75</v>
-      </c>
       <c r="K107" t="s" s="2">
-        <v>621</v>
+        <v>103</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="N107" s="2"/>
+        <v>620</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
         <v>75</v>
@@ -14569,7 +14530,7 @@
         <v>75</v>
       </c>
       <c r="T107" t="s" s="2">
-        <v>75</v>
+        <v>621</v>
       </c>
       <c r="U107" t="s" s="2">
         <v>75</v>
@@ -14605,40 +14566,40 @@
         <v>75</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>117</v>
+        <v>622</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>75</v>
+        <v>623</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>75</v>
+        <v>624</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>620</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>75</v>
+        <v>626</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14654,18 +14615,20 @@
         <v>75</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K108" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N108" s="2"/>
+        <v>628</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>629</v>
+      </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>75</v>
@@ -14678,7 +14641,7 @@
         <v>75</v>
       </c>
       <c r="T108" t="s" s="2">
-        <v>75</v>
+        <v>630</v>
       </c>
       <c r="U108" t="s" s="2">
         <v>75</v>
@@ -14687,7 +14650,7 @@
         <v>75</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>626</v>
+        <v>75</v>
       </c>
       <c r="X108" t="s" s="2">
         <v>75</v>
@@ -14714,7 +14677,7 @@
         <v>75</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>76</v>
@@ -14723,16 +14686,16 @@
         <v>85</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>75</v>
+        <v>632</v>
       </c>
       <c r="AM108" t="s" s="2">
         <v>75</v>
@@ -14740,14 +14703,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14769,13 +14732,13 @@
         <v>103</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
@@ -14789,7 +14752,7 @@
         <v>75</v>
       </c>
       <c r="T109" t="s" s="2">
-        <v>632</v>
+        <v>75</v>
       </c>
       <c r="U109" t="s" s="2">
         <v>75</v>
@@ -14825,7 +14788,7 @@
         <v>75</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>76</v>
@@ -14840,25 +14803,25 @@
         <v>99</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>634</v>
+        <v>75</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>75</v>
+        <v>638</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>635</v>
+        <v>75</v>
       </c>
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
@@ -14880,13 +14843,13 @@
         <v>103</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>640</v>
+        <v>301</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" t="s" s="2">
@@ -14900,7 +14863,7 @@
         <v>75</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>75</v>
@@ -14936,7 +14899,7 @@
         <v>75</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>76</v>
@@ -14951,10 +14914,10 @@
         <v>99</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>75</v>
+        <v>646</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>75</v>
@@ -14962,14 +14925,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>645</v>
+        <v>75</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -14991,13 +14954,13 @@
         <v>103</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>306</v>
+        <v>650</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15047,7 +15010,7 @@
         <v>75</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>76</v>
@@ -15062,10 +15025,10 @@
         <v>99</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>649</v>
+        <v>75</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>75</v>
+        <v>652</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>75</v>
@@ -15073,14 +15036,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>651</v>
+        <v>75</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15099,18 +15062,20 @@
         <v>86</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>103</v>
+        <v>349</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>656</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>75</v>
       </c>
@@ -15122,7 +15087,7 @@
         <v>75</v>
       </c>
       <c r="T112" t="s" s="2">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="U112" t="s" s="2">
         <v>75</v>
@@ -15158,7 +15123,7 @@
         <v>75</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>76</v>
@@ -15170,24 +15135,24 @@
         <v>98</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>656</v>
+        <v>75</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>75</v>
+        <v>497</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>657</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15210,18 +15175,20 @@
         <v>86</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>103</v>
+        <v>258</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>662</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>75</v>
       </c>
@@ -15245,13 +15212,13 @@
         <v>75</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>75</v>
+        <v>663</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>75</v>
+        <v>664</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>75</v>
@@ -15269,7 +15236,7 @@
         <v>75</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>76</v>
@@ -15284,21 +15251,21 @@
         <v>99</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>663</v>
+        <v>75</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>75</v>
+        <v>665</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>75</v>
+        <v>430</v>
       </c>
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15318,22 +15285,20 @@
         <v>75</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>354</v>
+        <v>667</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>666</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>357</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>75</v>
@@ -15346,7 +15311,7 @@
         <v>75</v>
       </c>
       <c r="T114" t="s" s="2">
-        <v>668</v>
+        <v>75</v>
       </c>
       <c r="U114" t="s" s="2">
         <v>75</v>
@@ -15382,7 +15347,7 @@
         <v>75</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>76</v>
@@ -15394,13 +15359,13 @@
         <v>98</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>359</v>
+        <v>99</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>502</v>
+        <v>671</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>75</v>
+        <v>672</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>75</v>
@@ -15408,10 +15373,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15431,23 +15396,19 @@
         <v>75</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>671</v>
+        <v>104</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N115" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="O115" t="s" s="2">
-        <v>673</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
       <c r="P115" t="s" s="2">
         <v>75</v>
       </c>
@@ -15471,13 +15432,13 @@
         <v>75</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>157</v>
+        <v>75</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>674</v>
+        <v>75</v>
       </c>
       <c r="Z115" t="s" s="2">
-        <v>675</v>
+        <v>75</v>
       </c>
       <c r="AA115" t="s" s="2">
         <v>75</v>
@@ -15495,7 +15456,7 @@
         <v>75</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>670</v>
+        <v>106</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>76</v>
@@ -15504,16 +15465,16 @@
         <v>85</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>676</v>
+        <v>75</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>435</v>
+        <v>107</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>75</v>
@@ -15521,21 +15482,21 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s" s="2">
         <v>75</v>
@@ -15547,18 +15508,18 @@
         <v>75</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>678</v>
+        <v>110</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>679</v>
+        <v>111</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>681</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
         <v>75</v>
       </c>
@@ -15594,50 +15555,52 @@
         <v>75</v>
       </c>
       <c r="AB116" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC116" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD116" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>677</v>
+        <v>117</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>682</v>
+        <v>75</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>683</v>
+        <v>75</v>
       </c>
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>684</v>
-      </c>
-      <c r="C117" s="2"/>
+        <v>674</v>
+      </c>
+      <c r="C117" t="s" s="2">
+        <v>676</v>
+      </c>
       <c r="D117" t="s" s="2">
         <v>75</v>
       </c>
@@ -15649,7 +15612,7 @@
         <v>85</v>
       </c>
       <c r="H117" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I117" t="s" s="2">
         <v>75</v>
@@ -15658,13 +15621,13 @@
         <v>75</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>103</v>
+        <v>677</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>104</v>
+        <v>678</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>105</v>
+        <v>679</v>
       </c>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
@@ -15715,22 +15678,22 @@
         <v>75</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH117" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL117" t="s" s="2">
         <v>75</v>
@@ -15741,14 +15704,14 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>109</v>
+        <v>681</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" t="s" s="2">
@@ -15761,24 +15724,26 @@
         <v>75</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>110</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>111</v>
+        <v>682</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>112</v>
+        <v>683</v>
       </c>
       <c r="N118" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="O118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P118" t="s" s="2">
         <v>75</v>
       </c>
@@ -15814,19 +15779,19 @@
         <v>75</v>
       </c>
       <c r="AB118" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC118" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD118" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>117</v>
+        <v>684</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>76</v>
@@ -15841,10 +15806,10 @@
         <v>118</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>75</v>
@@ -15852,26 +15817,24 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>685</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>687</v>
-      </c>
+      <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
         <v>75</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H119" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I119" t="s" s="2">
         <v>75</v>
@@ -15880,15 +15843,17 @@
         <v>75</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M119" t="s" s="2">
-        <v>690</v>
-      </c>
-      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>75</v>
@@ -15937,25 +15902,25 @@
         <v>75</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>117</v>
+        <v>685</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>75</v>
+        <v>690</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>75</v>
+        <v>691</v>
       </c>
       <c r="AM119" t="s" s="2">
         <v>75</v>
@@ -15963,33 +15928,33 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>692</v>
+        <v>75</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H120" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>110</v>
+        <v>686</v>
       </c>
       <c r="L120" t="s" s="2">
         <v>693</v>
@@ -15998,11 +15963,9 @@
         <v>694</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>75</v>
       </c>
@@ -16050,25 +16013,25 @@
         <v>75</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AH120" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI120" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>100</v>
+        <v>695</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>75</v>
+        <v>691</v>
       </c>
       <c r="AM120" t="s" s="2">
         <v>75</v>
@@ -16087,7 +16050,7 @@
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>85</v>
@@ -16102,16 +16065,16 @@
         <v>75</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>697</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>698</v>
       </c>
-      <c r="M121" t="s" s="2">
-        <v>699</v>
-      </c>
       <c r="N121" t="s" s="2">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16164,7 +16127,7 @@
         <v>696</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>85</v>
@@ -16176,21 +16139,21 @@
         <v>99</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>75</v>
+        <v>691</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>702</v>
+        <v>75</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16198,33 +16161,35 @@
       </c>
       <c r="E122" s="2"/>
       <c r="F122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G122" t="s" s="2">
         <v>85</v>
       </c>
       <c r="H122" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I122" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>701</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>702</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>703</v>
+      </c>
+      <c r="O122" t="s" s="2">
         <v>704</v>
       </c>
-      <c r="M122" t="s" s="2">
-        <v>705</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>75</v>
       </c>
@@ -16272,10 +16237,10 @@
         <v>75</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>85</v>
@@ -16284,24 +16249,24 @@
         <v>98</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>75</v>
+        <v>705</v>
       </c>
       <c r="AM122" t="s" s="2">
-        <v>706</v>
+        <v>75</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16315,7 +16280,7 @@
         <v>85</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="I123" t="s" s="2">
         <v>75</v>
@@ -16324,7 +16289,7 @@
         <v>75</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>697</v>
+        <v>707</v>
       </c>
       <c r="L123" t="s" s="2">
         <v>708</v>
@@ -16333,9 +16298,11 @@
         <v>709</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>700</v>
-      </c>
-      <c r="O123" s="2"/>
+        <v>710</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>711</v>
+      </c>
       <c r="P123" t="s" s="2">
         <v>75</v>
       </c>
@@ -16383,7 +16350,7 @@
         <v>75</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>76</v>
@@ -16395,13 +16362,13 @@
         <v>98</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>701</v>
+        <v>75</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>75</v>
+        <v>712</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>75</v>
@@ -16409,10 +16376,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16423,32 +16390,30 @@
         <v>76</v>
       </c>
       <c r="G124" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H124" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I124" t="s" s="2">
         <v>75</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>711</v>
+        <v>667</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="O124" t="s" s="2">
-        <v>715</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
         <v>75</v>
       </c>
@@ -16496,25 +16461,25 @@
         <v>75</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>368</v>
+        <v>99</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>716</v>
+        <v>75</v>
       </c>
       <c r="AL124" t="s" s="2">
-        <v>75</v>
+        <v>717</v>
       </c>
       <c r="AM124" t="s" s="2">
         <v>75</v>
@@ -16522,10 +16487,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16548,20 +16513,16 @@
         <v>75</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>718</v>
+        <v>103</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>719</v>
+        <v>104</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="N125" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O125" t="s" s="2">
-        <v>722</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
       <c r="P125" t="s" s="2">
         <v>75</v>
       </c>
@@ -16609,7 +16570,7 @@
         <v>75</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>717</v>
+        <v>106</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>76</v>
@@ -16618,16 +16579,16 @@
         <v>85</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="AJ125" t="s" s="2">
-        <v>368</v>
+        <v>75</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>723</v>
+        <v>75</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM125" t="s" s="2">
         <v>75</v>
@@ -16635,14 +16596,14 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
@@ -16661,16 +16622,16 @@
         <v>75</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>678</v>
+        <v>110</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>725</v>
+        <v>111</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>726</v>
+        <v>112</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>727</v>
+        <v>113</v>
       </c>
       <c r="O126" s="2"/>
       <c r="P126" t="s" s="2">
@@ -16708,19 +16669,19 @@
         <v>75</v>
       </c>
       <c r="AB126" t="s" s="2">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="AC126" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="AD126" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE126" t="s" s="2">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>724</v>
+        <v>117</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>76</v>
@@ -16732,13 +16693,13 @@
         <v>98</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>728</v>
+        <v>75</v>
       </c>
       <c r="AL126" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM126" t="s" s="2">
         <v>75</v>
@@ -16746,42 +16707,46 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
-        <v>75</v>
+        <v>681</v>
       </c>
       <c r="E127" s="2"/>
       <c r="F127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G127" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H127" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>104</v>
+        <v>682</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
+        <v>683</v>
+      </c>
+      <c r="N127" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="O127" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="P127" t="s" s="2">
         <v>75</v>
       </c>
@@ -16829,25 +16794,25 @@
         <v>75</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>106</v>
+        <v>684</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH127" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI127" t="s" s="2">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="AL127" t="s" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="AM127" t="s" s="2">
         <v>75</v>
@@ -16855,14 +16820,14 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16881,16 +16846,16 @@
         <v>75</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>111</v>
+        <v>722</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>112</v>
+        <v>723</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
@@ -16916,31 +16881,31 @@
         <v>75</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="Y128" t="s" s="2">
-        <v>75</v>
+        <v>724</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>75</v>
+        <v>725</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB128" t="s" s="2">
-        <v>114</v>
+        <v>75</v>
       </c>
       <c r="AC128" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="AD128" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>117</v>
+        <v>721</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>76</v>
@@ -16952,13 +16917,13 @@
         <v>98</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK128" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>75</v>
+        <v>717</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>75</v>
@@ -16966,46 +16931,42 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
-        <v>692</v>
+        <v>75</v>
       </c>
       <c r="E129" s="2"/>
       <c r="F129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G129" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H129" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>110</v>
+        <v>315</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>693</v>
+        <v>727</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>694</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="O129" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>728</v>
+      </c>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
       <c r="P129" t="s" s="2">
         <v>75</v>
       </c>
@@ -17053,25 +17014,25 @@
         <v>75</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>695</v>
+        <v>726</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ129" t="s" s="2">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AL129" t="s" s="2">
-        <v>75</v>
+        <v>717</v>
       </c>
       <c r="AM129" t="s" s="2">
         <v>75</v>
@@ -17079,10 +17040,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17093,7 +17054,7 @@
         <v>76</v>
       </c>
       <c r="G130" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H130" t="s" s="2">
         <v>75</v>
@@ -17105,17 +17066,15 @@
         <v>75</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>173</v>
+        <v>730</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>734</v>
-      </c>
-      <c r="N130" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>732</v>
+      </c>
+      <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" t="s" s="2">
         <v>75</v>
@@ -17140,13 +17099,13 @@
         <v>75</v>
       </c>
       <c r="X130" t="s" s="2">
-        <v>164</v>
+        <v>75</v>
       </c>
       <c r="Y130" t="s" s="2">
-        <v>735</v>
+        <v>75</v>
       </c>
       <c r="Z130" t="s" s="2">
-        <v>736</v>
+        <v>75</v>
       </c>
       <c r="AA130" t="s" s="2">
         <v>75</v>
@@ -17164,13 +17123,13 @@
         <v>75</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>98</v>
@@ -17179,10 +17138,10 @@
         <v>99</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>728</v>
+        <v>75</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>75</v>
+        <v>717</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>75</v>
@@ -17190,10 +17149,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17216,13 +17175,13 @@
         <v>75</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>320</v>
+        <v>730</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17273,7 +17232,7 @@
         <v>75</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>76</v>
@@ -17288,10 +17247,10 @@
         <v>99</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>728</v>
+        <v>75</v>
       </c>
       <c r="AL131" t="s" s="2">
-        <v>75</v>
+        <v>717</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>75</v>
@@ -17299,10 +17258,10 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17325,15 +17284,17 @@
         <v>75</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>741</v>
+        <v>103</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>743</v>
-      </c>
-      <c r="N132" s="2"/>
+        <v>738</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
         <v>75</v>
@@ -17382,7 +17343,7 @@
         <v>75</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>76</v>
@@ -17397,10 +17358,10 @@
         <v>99</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>728</v>
+        <v>75</v>
       </c>
       <c r="AL132" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="AM132" t="s" s="2">
         <v>75</v>
@@ -17408,10 +17369,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17422,7 +17383,7 @@
         <v>76</v>
       </c>
       <c r="G133" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H133" t="s" s="2">
         <v>75</v>
@@ -17434,16 +17395,20 @@
         <v>75</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="L133" t="s" s="2">
         <v>741</v>
       </c>
-      <c r="L133" t="s" s="2">
-        <v>745</v>
-      </c>
       <c r="M133" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
+        <v>742</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>710</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>743</v>
+      </c>
       <c r="P133" t="s" s="2">
         <v>75</v>
       </c>
@@ -17491,256 +17456,32 @@
         <v>75</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH133" t="s" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AI133" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ133" t="s" s="2">
-        <v>99</v>
+        <v>363</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>728</v>
+        <v>75</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>75</v>
+        <v>744</v>
       </c>
       <c r="AM133" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" hidden="true">
-      <c r="A134" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="B134" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="C134" s="2"/>
-      <c r="D134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G134" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K134" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L134" t="s" s="2">
-        <v>748</v>
-      </c>
-      <c r="M134" t="s" s="2">
-        <v>749</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O134" s="2"/>
-      <c r="P134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q134" s="2"/>
-      <c r="R134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF134" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AG134" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH134" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI134" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ134" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK134" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AL134" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" hidden="true">
-      <c r="A135" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="B135" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="C135" s="2"/>
-      <c r="D135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="E135" s="2"/>
-      <c r="F135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="K135" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="L135" t="s" s="2">
-        <v>752</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>753</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O135" t="s" s="2">
-        <v>754</v>
-      </c>
-      <c r="P135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Q135" s="2"/>
-      <c r="R135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AF135" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="AG135" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH135" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI135" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ135" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AK135" t="s" s="2">
-        <v>755</v>
-      </c>
-      <c r="AL135" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM135" t="s" s="2">
         <v>75</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM135">
+  <autoFilter ref="A1:AM133">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -17750,7 +17491,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI134">
+  <conditionalFormatting sqref="A2:AI132">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/StructureDefinition-ror-location.xlsx
+++ b/ig/StructureDefinition-ror-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.4.0-snapshot-1</t>
+    <t>0.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-23T12:16:26+00:00</t>
+    <t>2024-12-09T16:21:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -433,7 +433,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -453,7 +453,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1624,7 +1624,7 @@
     <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
   </si>
   <si>
-    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](location.html#) resource).</t>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
   </si>
   <si>
     <t>both</t>
